--- a/SystemMailTracking/Files/SessionSuite.xlsx
+++ b/SystemMailTracking/Files/SessionSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>TCID</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Autonewaccount114@mailinator.com</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -761,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -784,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -792,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -800,15 +802,15 @@
         <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +962,7 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -999,7 +1001,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" s="17" customFormat="1">
+    <row r="13" spans="1:5" s="16" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1044,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" s="17" customFormat="1">
+    <row r="16" spans="1:5" s="16" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1057,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" s="17" customFormat="1">
+    <row r="17" spans="1:5" s="16" customFormat="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1063,222 +1065,222 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="28.8">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="28.8">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="28.8">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1371,10 +1373,10 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1394,7 +1396,7 @@
       <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1419,28 +1421,28 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1463,13 +1465,13 @@
       <c r="F11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>79</v>
       </c>
       <c r="J11">
@@ -1506,43 +1508,43 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1565,25 +1567,25 @@
       <c r="F15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>56</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="12" t="s">
         <v>52</v>
       </c>
       <c r="N15" t="s">

--- a/SystemMailTracking/Files/SessionSuite.xlsx
+++ b/SystemMailTracking/Files/SessionSuite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF6FB9BB-2B3F-4EC4-8B5B-96E3C88C69BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="3024" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="99">
   <si>
     <t>TCID</t>
   </si>
@@ -81,9 +82,6 @@
     <t>groupcode</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -258,20 +256,71 @@
     <t>Your user account has been created you may now login to the RapidFunnel app.If you have not downloaded the app please do so through the Apple App Store or Google Play. You can also login online at my.prospectbylegalshield.com</t>
   </si>
   <si>
-    <t>Autonewaccount113@mailinator.com</t>
-  </si>
-  <si>
-    <t>Autonewaccount114@mailinator.com</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>password@12</t>
+  </si>
+  <si>
+    <t>qiRUR5</t>
+  </si>
+  <si>
+    <t>Autonewuser1@mailinator.com</t>
+  </si>
+  <si>
+    <t>Autonewuser2@mailinator.com</t>
+  </si>
+  <si>
+    <t>9658877498</t>
+  </si>
+  <si>
+    <t>RFAdminlogin</t>
+  </si>
+  <si>
+    <t>Navigate to the RF login page</t>
+  </si>
+  <si>
+    <t>Enter valid credential and login to application as RF Admin</t>
+  </si>
+  <si>
+    <t>admin@email.org</t>
+  </si>
+  <si>
+    <t>rf!@#$</t>
+  </si>
+  <si>
+    <t>deleteTrialuser</t>
+  </si>
+  <si>
+    <t>deleteTrialuserTest</t>
+  </si>
+  <si>
+    <t>Login to application</t>
+  </si>
+  <si>
+    <t>deletepaiduserTest</t>
+  </si>
+  <si>
+    <t>Delete paid from RF Admin</t>
+  </si>
+  <si>
+    <t>deletepaiduser</t>
+  </si>
+  <si>
+    <t>deletePaiduserTest</t>
+  </si>
+  <si>
+    <t>RFUrl</t>
+  </si>
+  <si>
+    <t>Login to RF Application</t>
+  </si>
+  <si>
+    <t>Verify recently added trial user is deleted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +350,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +404,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +494,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -458,6 +532,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,9 +644,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,6 +696,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,20 +889,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,52 +910,80 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" customWidth="1"/>
@@ -835,7 +992,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,280 +1009,274 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="28.8">
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>38</v>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" s="16" customFormat="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" s="16" customFormat="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" s="16" customFormat="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>6</v>
@@ -1135,152 +1286,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.8">
-      <c r="A28" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.8">
-      <c r="A30" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="19" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="C39" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="34"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,14 +1642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="8.21875" customWidth="1"/>
@@ -1315,13 +1668,13 @@
     <col min="18" max="18" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="22.2" customHeight="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1346,21 +1699,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1368,19 +1722,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="76.2" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1388,24 +1739,21 @@
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1413,86 +1761,44 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="93" customHeight="1">
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11">
-        <v>9658877498</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1503,116 +1809,263 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="124.8" customHeight="1">
+    </row>
+    <row r="15" spans="1:13" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15">
-        <v>9658877498</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="I19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>76</v>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F15" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="M11" r:id="rId4"/>
-    <hyperlink ref="R15" r:id="rId5"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="R19" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{C5D8E988-E18D-4B5C-8494-810F8E6AAE1C}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{82EE9655-A015-4B49-A010-3754AEDD666F}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{CD84A71C-4DC5-474B-80BA-0ECFF32914E2}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{0EB1F367-9124-4CBA-B563-83967531F67A}"/>
+    <hyperlink ref="C27" r:id="rId9" xr:uid="{471EBE60-7E7D-42CF-8948-2561CF2A7ABB}"/>
+    <hyperlink ref="C23" r:id="rId10" xr:uid="{6487A95F-114B-4A17-A4BE-CACF1E503626}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{2E2A8720-7436-4F4F-B5F4-7238B887570C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>